--- a/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
+++ b/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
@@ -229,7 +229,7 @@
     <t>Grassland</t>
   </si>
   <si>
-    <t>Shrub</t>
+    <t>CSS</t>
   </si>
   <si>
     <t>Reduced</t>

--- a/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
+++ b/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>amide</t>
+  </si>
+  <si>
+    <t>carboEster1</t>
+  </si>
+  <si>
+    <t>carboEster2</t>
+  </si>
+  <si>
+    <t>amide1</t>
+  </si>
+  <si>
+    <t>amide2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8329,6 +8341,5126 @@
         <v>3.440982881</v>
       </c>
     </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>70</v>
+      </c>
+      <c r="C386" t="s">
+        <v>72</v>
+      </c>
+      <c r="D386" t="s">
+        <v>74</v>
+      </c>
+      <c r="E386" t="s">
+        <v>84</v>
+      </c>
+      <c r="F386">
+        <v>7.768135099</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387" t="s">
+        <v>70</v>
+      </c>
+      <c r="C387" t="s">
+        <v>73</v>
+      </c>
+      <c r="D387" t="s">
+        <v>75</v>
+      </c>
+      <c r="E387" t="s">
+        <v>84</v>
+      </c>
+      <c r="F387">
+        <v>6.561219812</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>8</v>
+      </c>
+      <c r="B388" t="s">
+        <v>70</v>
+      </c>
+      <c r="C388" t="s">
+        <v>72</v>
+      </c>
+      <c r="D388" t="s">
+        <v>74</v>
+      </c>
+      <c r="E388" t="s">
+        <v>84</v>
+      </c>
+      <c r="F388">
+        <v>5.275582275</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>70</v>
+      </c>
+      <c r="C389" t="s">
+        <v>73</v>
+      </c>
+      <c r="D389" t="s">
+        <v>75</v>
+      </c>
+      <c r="E389" t="s">
+        <v>84</v>
+      </c>
+      <c r="F389">
+        <v>6.416124228</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" t="s">
+        <v>71</v>
+      </c>
+      <c r="C390" t="s">
+        <v>72</v>
+      </c>
+      <c r="D390" t="s">
+        <v>74</v>
+      </c>
+      <c r="E390" t="s">
+        <v>84</v>
+      </c>
+      <c r="F390">
+        <v>4.606631812</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391" t="s">
+        <v>71</v>
+      </c>
+      <c r="C391" t="s">
+        <v>73</v>
+      </c>
+      <c r="D391" t="s">
+        <v>74</v>
+      </c>
+      <c r="E391" t="s">
+        <v>84</v>
+      </c>
+      <c r="F391">
+        <v>4.455478883</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>12</v>
+      </c>
+      <c r="B392" t="s">
+        <v>71</v>
+      </c>
+      <c r="C392" t="s">
+        <v>73</v>
+      </c>
+      <c r="D392" t="s">
+        <v>74</v>
+      </c>
+      <c r="E392" t="s">
+        <v>84</v>
+      </c>
+      <c r="F392">
+        <v>4.402916642</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>13</v>
+      </c>
+      <c r="B393" t="s">
+        <v>71</v>
+      </c>
+      <c r="C393" t="s">
+        <v>72</v>
+      </c>
+      <c r="D393" t="s">
+        <v>74</v>
+      </c>
+      <c r="E393" t="s">
+        <v>84</v>
+      </c>
+      <c r="F393">
+        <v>4.529237457</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>14</v>
+      </c>
+      <c r="B394" t="s">
+        <v>70</v>
+      </c>
+      <c r="C394" t="s">
+        <v>73</v>
+      </c>
+      <c r="D394" t="s">
+        <v>75</v>
+      </c>
+      <c r="E394" t="s">
+        <v>84</v>
+      </c>
+      <c r="F394">
+        <v>6.505479769</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>71</v>
+      </c>
+      <c r="C395" t="s">
+        <v>72</v>
+      </c>
+      <c r="D395" t="s">
+        <v>74</v>
+      </c>
+      <c r="E395" t="s">
+        <v>84</v>
+      </c>
+      <c r="F395">
+        <v>4.610776752</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>16</v>
+      </c>
+      <c r="B396" t="s">
+        <v>71</v>
+      </c>
+      <c r="C396" t="s">
+        <v>73</v>
+      </c>
+      <c r="D396" t="s">
+        <v>74</v>
+      </c>
+      <c r="E396" t="s">
+        <v>84</v>
+      </c>
+      <c r="F396">
+        <v>5.004669974</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>17</v>
+      </c>
+      <c r="B397" t="s">
+        <v>71</v>
+      </c>
+      <c r="C397" t="s">
+        <v>72</v>
+      </c>
+      <c r="D397" t="s">
+        <v>74</v>
+      </c>
+      <c r="E397" t="s">
+        <v>84</v>
+      </c>
+      <c r="F397">
+        <v>5.080564807</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>71</v>
+      </c>
+      <c r="C398" t="s">
+        <v>73</v>
+      </c>
+      <c r="D398" t="s">
+        <v>74</v>
+      </c>
+      <c r="E398" t="s">
+        <v>84</v>
+      </c>
+      <c r="F398">
+        <v>4.920379979</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>19</v>
+      </c>
+      <c r="B399" t="s">
+        <v>70</v>
+      </c>
+      <c r="C399" t="s">
+        <v>72</v>
+      </c>
+      <c r="D399" t="s">
+        <v>74</v>
+      </c>
+      <c r="E399" t="s">
+        <v>84</v>
+      </c>
+      <c r="F399">
+        <v>6.734881775</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>20</v>
+      </c>
+      <c r="B400" t="s">
+        <v>70</v>
+      </c>
+      <c r="C400" t="s">
+        <v>72</v>
+      </c>
+      <c r="D400" t="s">
+        <v>74</v>
+      </c>
+      <c r="E400" t="s">
+        <v>84</v>
+      </c>
+      <c r="F400">
+        <v>5.604570616</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>21</v>
+      </c>
+      <c r="B401" t="s">
+        <v>70</v>
+      </c>
+      <c r="C401" t="s">
+        <v>73</v>
+      </c>
+      <c r="D401" t="s">
+        <v>75</v>
+      </c>
+      <c r="E401" t="s">
+        <v>84</v>
+      </c>
+      <c r="F401">
+        <v>6.749542391</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>22</v>
+      </c>
+      <c r="B402" t="s">
+        <v>70</v>
+      </c>
+      <c r="C402" t="s">
+        <v>72</v>
+      </c>
+      <c r="D402" t="s">
+        <v>75</v>
+      </c>
+      <c r="E402" t="s">
+        <v>84</v>
+      </c>
+      <c r="F402">
+        <v>8.181713995000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>23</v>
+      </c>
+      <c r="B403" t="s">
+        <v>70</v>
+      </c>
+      <c r="C403" t="s">
+        <v>73</v>
+      </c>
+      <c r="D403" t="s">
+        <v>74</v>
+      </c>
+      <c r="E403" t="s">
+        <v>84</v>
+      </c>
+      <c r="F403">
+        <v>6.705938754</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>24</v>
+      </c>
+      <c r="B404" t="s">
+        <v>70</v>
+      </c>
+      <c r="C404" t="s">
+        <v>72</v>
+      </c>
+      <c r="D404" t="s">
+        <v>75</v>
+      </c>
+      <c r="E404" t="s">
+        <v>84</v>
+      </c>
+      <c r="F404">
+        <v>7.767117465</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>25</v>
+      </c>
+      <c r="B405" t="s">
+        <v>70</v>
+      </c>
+      <c r="C405" t="s">
+        <v>73</v>
+      </c>
+      <c r="D405" t="s">
+        <v>74</v>
+      </c>
+      <c r="E405" t="s">
+        <v>84</v>
+      </c>
+      <c r="F405">
+        <v>7.378071024</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>26</v>
+      </c>
+      <c r="B406" t="s">
+        <v>71</v>
+      </c>
+      <c r="C406" t="s">
+        <v>72</v>
+      </c>
+      <c r="D406" t="s">
+        <v>75</v>
+      </c>
+      <c r="E406" t="s">
+        <v>84</v>
+      </c>
+      <c r="F406">
+        <v>4.97148486</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>27</v>
+      </c>
+      <c r="B407" t="s">
+        <v>71</v>
+      </c>
+      <c r="C407" t="s">
+        <v>73</v>
+      </c>
+      <c r="D407" t="s">
+        <v>75</v>
+      </c>
+      <c r="E407" t="s">
+        <v>84</v>
+      </c>
+      <c r="F407">
+        <v>4.815196288</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>28</v>
+      </c>
+      <c r="B408" t="s">
+        <v>71</v>
+      </c>
+      <c r="C408" t="s">
+        <v>73</v>
+      </c>
+      <c r="D408" t="s">
+        <v>75</v>
+      </c>
+      <c r="E408" t="s">
+        <v>84</v>
+      </c>
+      <c r="F408">
+        <v>4.345925338</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" t="s">
+        <v>71</v>
+      </c>
+      <c r="C409" t="s">
+        <v>72</v>
+      </c>
+      <c r="D409" t="s">
+        <v>75</v>
+      </c>
+      <c r="E409" t="s">
+        <v>84</v>
+      </c>
+      <c r="F409">
+        <v>4.938009638</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>30</v>
+      </c>
+      <c r="B410" t="s">
+        <v>70</v>
+      </c>
+      <c r="C410" t="s">
+        <v>73</v>
+      </c>
+      <c r="D410" t="s">
+        <v>74</v>
+      </c>
+      <c r="E410" t="s">
+        <v>84</v>
+      </c>
+      <c r="F410">
+        <v>7.390124978</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>31</v>
+      </c>
+      <c r="B411" t="s">
+        <v>71</v>
+      </c>
+      <c r="C411" t="s">
+        <v>72</v>
+      </c>
+      <c r="D411" t="s">
+        <v>75</v>
+      </c>
+      <c r="E411" t="s">
+        <v>84</v>
+      </c>
+      <c r="F411">
+        <v>4.519613579</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>32</v>
+      </c>
+      <c r="B412" t="s">
+        <v>71</v>
+      </c>
+      <c r="C412" t="s">
+        <v>73</v>
+      </c>
+      <c r="D412" t="s">
+        <v>75</v>
+      </c>
+      <c r="E412" t="s">
+        <v>84</v>
+      </c>
+      <c r="F412">
+        <v>4.363506839</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>33</v>
+      </c>
+      <c r="B413" t="s">
+        <v>71</v>
+      </c>
+      <c r="C413" t="s">
+        <v>72</v>
+      </c>
+      <c r="D413" t="s">
+        <v>75</v>
+      </c>
+      <c r="E413" t="s">
+        <v>84</v>
+      </c>
+      <c r="F413">
+        <v>4.369436973</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>34</v>
+      </c>
+      <c r="B414" t="s">
+        <v>71</v>
+      </c>
+      <c r="C414" t="s">
+        <v>73</v>
+      </c>
+      <c r="D414" t="s">
+        <v>75</v>
+      </c>
+      <c r="E414" t="s">
+        <v>84</v>
+      </c>
+      <c r="F414">
+        <v>4.552675483</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" t="s">
+        <v>70</v>
+      </c>
+      <c r="C415" t="s">
+        <v>72</v>
+      </c>
+      <c r="D415" t="s">
+        <v>75</v>
+      </c>
+      <c r="E415" t="s">
+        <v>84</v>
+      </c>
+      <c r="F415">
+        <v>4.150067786</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" t="s">
+        <v>70</v>
+      </c>
+      <c r="C416" t="s">
+        <v>72</v>
+      </c>
+      <c r="D416" t="s">
+        <v>75</v>
+      </c>
+      <c r="E416" t="s">
+        <v>84</v>
+      </c>
+      <c r="F416">
+        <v>6.874078017</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>37</v>
+      </c>
+      <c r="B417" t="s">
+        <v>70</v>
+      </c>
+      <c r="C417" t="s">
+        <v>73</v>
+      </c>
+      <c r="D417" t="s">
+        <v>74</v>
+      </c>
+      <c r="E417" t="s">
+        <v>84</v>
+      </c>
+      <c r="F417">
+        <v>6.554582265</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>38</v>
+      </c>
+      <c r="B418" t="s">
+        <v>70</v>
+      </c>
+      <c r="C418" t="s">
+        <v>72</v>
+      </c>
+      <c r="D418" t="s">
+        <v>76</v>
+      </c>
+      <c r="E418" t="s">
+        <v>84</v>
+      </c>
+      <c r="F418">
+        <v>6.137775033</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>39</v>
+      </c>
+      <c r="B419" t="s">
+        <v>70</v>
+      </c>
+      <c r="C419" t="s">
+        <v>73</v>
+      </c>
+      <c r="D419" t="s">
+        <v>76</v>
+      </c>
+      <c r="E419" t="s">
+        <v>84</v>
+      </c>
+      <c r="F419">
+        <v>6.81834895</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>40</v>
+      </c>
+      <c r="B420" t="s">
+        <v>70</v>
+      </c>
+      <c r="C420" t="s">
+        <v>72</v>
+      </c>
+      <c r="D420" t="s">
+        <v>76</v>
+      </c>
+      <c r="E420" t="s">
+        <v>84</v>
+      </c>
+      <c r="F420">
+        <v>5.866042488</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>41</v>
+      </c>
+      <c r="B421" t="s">
+        <v>70</v>
+      </c>
+      <c r="C421" t="s">
+        <v>73</v>
+      </c>
+      <c r="D421" t="s">
+        <v>76</v>
+      </c>
+      <c r="E421" t="s">
+        <v>84</v>
+      </c>
+      <c r="F421">
+        <v>6.055472311</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>42</v>
+      </c>
+      <c r="B422" t="s">
+        <v>71</v>
+      </c>
+      <c r="C422" t="s">
+        <v>72</v>
+      </c>
+      <c r="D422" t="s">
+        <v>76</v>
+      </c>
+      <c r="E422" t="s">
+        <v>84</v>
+      </c>
+      <c r="F422">
+        <v>6.325366931</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>43</v>
+      </c>
+      <c r="B423" t="s">
+        <v>71</v>
+      </c>
+      <c r="C423" t="s">
+        <v>73</v>
+      </c>
+      <c r="D423" t="s">
+        <v>76</v>
+      </c>
+      <c r="E423" t="s">
+        <v>84</v>
+      </c>
+      <c r="F423">
+        <v>4.961960428</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>44</v>
+      </c>
+      <c r="B424" t="s">
+        <v>71</v>
+      </c>
+      <c r="C424" t="s">
+        <v>73</v>
+      </c>
+      <c r="D424" t="s">
+        <v>76</v>
+      </c>
+      <c r="E424" t="s">
+        <v>84</v>
+      </c>
+      <c r="F424">
+        <v>4.290334057</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>45</v>
+      </c>
+      <c r="B425" t="s">
+        <v>71</v>
+      </c>
+      <c r="C425" t="s">
+        <v>72</v>
+      </c>
+      <c r="D425" t="s">
+        <v>76</v>
+      </c>
+      <c r="E425" t="s">
+        <v>84</v>
+      </c>
+      <c r="F425">
+        <v>4.634766293</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>46</v>
+      </c>
+      <c r="B426" t="s">
+        <v>70</v>
+      </c>
+      <c r="C426" t="s">
+        <v>73</v>
+      </c>
+      <c r="D426" t="s">
+        <v>76</v>
+      </c>
+      <c r="E426" t="s">
+        <v>84</v>
+      </c>
+      <c r="F426">
+        <v>6.193682022</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>47</v>
+      </c>
+      <c r="B427" t="s">
+        <v>71</v>
+      </c>
+      <c r="C427" t="s">
+        <v>72</v>
+      </c>
+      <c r="D427" t="s">
+        <v>76</v>
+      </c>
+      <c r="E427" t="s">
+        <v>84</v>
+      </c>
+      <c r="F427">
+        <v>4.704359442</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>48</v>
+      </c>
+      <c r="B428" t="s">
+        <v>71</v>
+      </c>
+      <c r="C428" t="s">
+        <v>73</v>
+      </c>
+      <c r="D428" t="s">
+        <v>76</v>
+      </c>
+      <c r="E428" t="s">
+        <v>84</v>
+      </c>
+      <c r="F428">
+        <v>4.637561113</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" t="s">
+        <v>71</v>
+      </c>
+      <c r="C429" t="s">
+        <v>72</v>
+      </c>
+      <c r="D429" t="s">
+        <v>76</v>
+      </c>
+      <c r="E429" t="s">
+        <v>84</v>
+      </c>
+      <c r="F429">
+        <v>4.811876836</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>50</v>
+      </c>
+      <c r="B430" t="s">
+        <v>71</v>
+      </c>
+      <c r="C430" t="s">
+        <v>73</v>
+      </c>
+      <c r="D430" t="s">
+        <v>76</v>
+      </c>
+      <c r="E430" t="s">
+        <v>84</v>
+      </c>
+      <c r="F430">
+        <v>4.5408481</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>51</v>
+      </c>
+      <c r="B431" t="s">
+        <v>70</v>
+      </c>
+      <c r="C431" t="s">
+        <v>72</v>
+      </c>
+      <c r="D431" t="s">
+        <v>76</v>
+      </c>
+      <c r="E431" t="s">
+        <v>84</v>
+      </c>
+      <c r="F431">
+        <v>4.928407642</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>52</v>
+      </c>
+      <c r="B432" t="s">
+        <v>70</v>
+      </c>
+      <c r="C432" t="s">
+        <v>72</v>
+      </c>
+      <c r="D432" t="s">
+        <v>76</v>
+      </c>
+      <c r="E432" t="s">
+        <v>84</v>
+      </c>
+      <c r="F432">
+        <v>6.500736689</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>53</v>
+      </c>
+      <c r="B433" t="s">
+        <v>70</v>
+      </c>
+      <c r="C433" t="s">
+        <v>73</v>
+      </c>
+      <c r="D433" t="s">
+        <v>76</v>
+      </c>
+      <c r="E433" t="s">
+        <v>84</v>
+      </c>
+      <c r="F433">
+        <v>6.887949674</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>54</v>
+      </c>
+      <c r="B434" t="s">
+        <v>70</v>
+      </c>
+      <c r="C434" t="s">
+        <v>72</v>
+      </c>
+      <c r="D434" t="s">
+        <v>77</v>
+      </c>
+      <c r="E434" t="s">
+        <v>84</v>
+      </c>
+      <c r="F434">
+        <v>5.075911926</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>55</v>
+      </c>
+      <c r="B435" t="s">
+        <v>70</v>
+      </c>
+      <c r="C435" t="s">
+        <v>73</v>
+      </c>
+      <c r="D435" t="s">
+        <v>77</v>
+      </c>
+      <c r="E435" t="s">
+        <v>84</v>
+      </c>
+      <c r="F435">
+        <v>6.384827188</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>56</v>
+      </c>
+      <c r="B436" t="s">
+        <v>70</v>
+      </c>
+      <c r="C436" t="s">
+        <v>72</v>
+      </c>
+      <c r="D436" t="s">
+        <v>77</v>
+      </c>
+      <c r="E436" t="s">
+        <v>84</v>
+      </c>
+      <c r="F436">
+        <v>6.764037617</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>57</v>
+      </c>
+      <c r="B437" t="s">
+        <v>70</v>
+      </c>
+      <c r="C437" t="s">
+        <v>73</v>
+      </c>
+      <c r="D437" t="s">
+        <v>77</v>
+      </c>
+      <c r="E437" t="s">
+        <v>84</v>
+      </c>
+      <c r="F437">
+        <v>7.571199616</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>58</v>
+      </c>
+      <c r="B438" t="s">
+        <v>71</v>
+      </c>
+      <c r="C438" t="s">
+        <v>72</v>
+      </c>
+      <c r="D438" t="s">
+        <v>77</v>
+      </c>
+      <c r="E438" t="s">
+        <v>84</v>
+      </c>
+      <c r="F438">
+        <v>5.686275501</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>59</v>
+      </c>
+      <c r="B439" t="s">
+        <v>71</v>
+      </c>
+      <c r="C439" t="s">
+        <v>73</v>
+      </c>
+      <c r="D439" t="s">
+        <v>77</v>
+      </c>
+      <c r="E439" t="s">
+        <v>84</v>
+      </c>
+      <c r="F439">
+        <v>6.819286622</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>60</v>
+      </c>
+      <c r="B440" t="s">
+        <v>71</v>
+      </c>
+      <c r="C440" t="s">
+        <v>73</v>
+      </c>
+      <c r="D440" t="s">
+        <v>77</v>
+      </c>
+      <c r="E440" t="s">
+        <v>84</v>
+      </c>
+      <c r="F440">
+        <v>4.820753232</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>61</v>
+      </c>
+      <c r="B441" t="s">
+        <v>71</v>
+      </c>
+      <c r="C441" t="s">
+        <v>72</v>
+      </c>
+      <c r="D441" t="s">
+        <v>77</v>
+      </c>
+      <c r="E441" t="s">
+        <v>84</v>
+      </c>
+      <c r="F441">
+        <v>5.161163911</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>62</v>
+      </c>
+      <c r="B442" t="s">
+        <v>70</v>
+      </c>
+      <c r="C442" t="s">
+        <v>73</v>
+      </c>
+      <c r="D442" t="s">
+        <v>77</v>
+      </c>
+      <c r="E442" t="s">
+        <v>84</v>
+      </c>
+      <c r="F442">
+        <v>6.565898732</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>63</v>
+      </c>
+      <c r="B443" t="s">
+        <v>71</v>
+      </c>
+      <c r="C443" t="s">
+        <v>72</v>
+      </c>
+      <c r="D443" t="s">
+        <v>77</v>
+      </c>
+      <c r="E443" t="s">
+        <v>84</v>
+      </c>
+      <c r="F443">
+        <v>5.10425882</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>64</v>
+      </c>
+      <c r="B444" t="s">
+        <v>71</v>
+      </c>
+      <c r="C444" t="s">
+        <v>73</v>
+      </c>
+      <c r="D444" t="s">
+        <v>77</v>
+      </c>
+      <c r="E444" t="s">
+        <v>84</v>
+      </c>
+      <c r="F444">
+        <v>6.366301429</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>65</v>
+      </c>
+      <c r="B445" t="s">
+        <v>71</v>
+      </c>
+      <c r="C445" t="s">
+        <v>72</v>
+      </c>
+      <c r="D445" t="s">
+        <v>77</v>
+      </c>
+      <c r="E445" t="s">
+        <v>84</v>
+      </c>
+      <c r="F445">
+        <v>4.588789432</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>66</v>
+      </c>
+      <c r="B446" t="s">
+        <v>71</v>
+      </c>
+      <c r="C446" t="s">
+        <v>73</v>
+      </c>
+      <c r="D446" t="s">
+        <v>77</v>
+      </c>
+      <c r="E446" t="s">
+        <v>84</v>
+      </c>
+      <c r="F446">
+        <v>6.873149826</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>67</v>
+      </c>
+      <c r="B447" t="s">
+        <v>70</v>
+      </c>
+      <c r="C447" t="s">
+        <v>72</v>
+      </c>
+      <c r="D447" t="s">
+        <v>77</v>
+      </c>
+      <c r="E447" t="s">
+        <v>84</v>
+      </c>
+      <c r="F447">
+        <v>7.075000155</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>68</v>
+      </c>
+      <c r="B448" t="s">
+        <v>70</v>
+      </c>
+      <c r="C448" t="s">
+        <v>72</v>
+      </c>
+      <c r="D448" t="s">
+        <v>77</v>
+      </c>
+      <c r="E448" t="s">
+        <v>84</v>
+      </c>
+      <c r="F448">
+        <v>8.525593462</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>69</v>
+      </c>
+      <c r="B449" t="s">
+        <v>70</v>
+      </c>
+      <c r="C449" t="s">
+        <v>73</v>
+      </c>
+      <c r="D449" t="s">
+        <v>77</v>
+      </c>
+      <c r="E449" t="s">
+        <v>84</v>
+      </c>
+      <c r="F449">
+        <v>8.341616876</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" t="s">
+        <v>70</v>
+      </c>
+      <c r="C450" t="s">
+        <v>72</v>
+      </c>
+      <c r="D450" t="s">
+        <v>74</v>
+      </c>
+      <c r="E450" t="s">
+        <v>85</v>
+      </c>
+      <c r="F450">
+        <v>6.351134491</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" t="s">
+        <v>70</v>
+      </c>
+      <c r="C451" t="s">
+        <v>73</v>
+      </c>
+      <c r="D451" t="s">
+        <v>75</v>
+      </c>
+      <c r="E451" t="s">
+        <v>85</v>
+      </c>
+      <c r="F451">
+        <v>5.959236694</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>8</v>
+      </c>
+      <c r="B452" t="s">
+        <v>70</v>
+      </c>
+      <c r="C452" t="s">
+        <v>72</v>
+      </c>
+      <c r="D452" t="s">
+        <v>74</v>
+      </c>
+      <c r="E452" t="s">
+        <v>85</v>
+      </c>
+      <c r="F452">
+        <v>5.424979875</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>9</v>
+      </c>
+      <c r="B453" t="s">
+        <v>70</v>
+      </c>
+      <c r="C453" t="s">
+        <v>73</v>
+      </c>
+      <c r="D453" t="s">
+        <v>75</v>
+      </c>
+      <c r="E453" t="s">
+        <v>85</v>
+      </c>
+      <c r="F453">
+        <v>5.916135159</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" t="s">
+        <v>71</v>
+      </c>
+      <c r="C454" t="s">
+        <v>72</v>
+      </c>
+      <c r="D454" t="s">
+        <v>74</v>
+      </c>
+      <c r="E454" t="s">
+        <v>85</v>
+      </c>
+      <c r="F454">
+        <v>5.420809632</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>11</v>
+      </c>
+      <c r="B455" t="s">
+        <v>71</v>
+      </c>
+      <c r="C455" t="s">
+        <v>73</v>
+      </c>
+      <c r="D455" t="s">
+        <v>74</v>
+      </c>
+      <c r="E455" t="s">
+        <v>85</v>
+      </c>
+      <c r="F455">
+        <v>5.641535681</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" t="s">
+        <v>71</v>
+      </c>
+      <c r="C456" t="s">
+        <v>73</v>
+      </c>
+      <c r="D456" t="s">
+        <v>74</v>
+      </c>
+      <c r="E456" t="s">
+        <v>85</v>
+      </c>
+      <c r="F456">
+        <v>5.248244681</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" t="s">
+        <v>71</v>
+      </c>
+      <c r="C457" t="s">
+        <v>72</v>
+      </c>
+      <c r="D457" t="s">
+        <v>74</v>
+      </c>
+      <c r="E457" t="s">
+        <v>85</v>
+      </c>
+      <c r="F457">
+        <v>5.369364987</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>14</v>
+      </c>
+      <c r="B458" t="s">
+        <v>70</v>
+      </c>
+      <c r="C458" t="s">
+        <v>73</v>
+      </c>
+      <c r="D458" t="s">
+        <v>75</v>
+      </c>
+      <c r="E458" t="s">
+        <v>85</v>
+      </c>
+      <c r="F458">
+        <v>6.779194559</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>15</v>
+      </c>
+      <c r="B459" t="s">
+        <v>71</v>
+      </c>
+      <c r="C459" t="s">
+        <v>72</v>
+      </c>
+      <c r="D459" t="s">
+        <v>74</v>
+      </c>
+      <c r="E459" t="s">
+        <v>85</v>
+      </c>
+      <c r="F459">
+        <v>5.805865364</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>16</v>
+      </c>
+      <c r="B460" t="s">
+        <v>71</v>
+      </c>
+      <c r="C460" t="s">
+        <v>73</v>
+      </c>
+      <c r="D460" t="s">
+        <v>74</v>
+      </c>
+      <c r="E460" t="s">
+        <v>85</v>
+      </c>
+      <c r="F460">
+        <v>4.979778082</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>17</v>
+      </c>
+      <c r="B461" t="s">
+        <v>71</v>
+      </c>
+      <c r="C461" t="s">
+        <v>72</v>
+      </c>
+      <c r="D461" t="s">
+        <v>74</v>
+      </c>
+      <c r="E461" t="s">
+        <v>85</v>
+      </c>
+      <c r="F461">
+        <v>5.289330087</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>71</v>
+      </c>
+      <c r="C462" t="s">
+        <v>73</v>
+      </c>
+      <c r="D462" t="s">
+        <v>74</v>
+      </c>
+      <c r="E462" t="s">
+        <v>85</v>
+      </c>
+      <c r="F462">
+        <v>5.38019508</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>19</v>
+      </c>
+      <c r="B463" t="s">
+        <v>70</v>
+      </c>
+      <c r="C463" t="s">
+        <v>72</v>
+      </c>
+      <c r="D463" t="s">
+        <v>74</v>
+      </c>
+      <c r="E463" t="s">
+        <v>85</v>
+      </c>
+      <c r="F463">
+        <v>6.924058505</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>20</v>
+      </c>
+      <c r="B464" t="s">
+        <v>70</v>
+      </c>
+      <c r="C464" t="s">
+        <v>72</v>
+      </c>
+      <c r="D464" t="s">
+        <v>74</v>
+      </c>
+      <c r="E464" t="s">
+        <v>85</v>
+      </c>
+      <c r="F464">
+        <v>4.741652509</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>21</v>
+      </c>
+      <c r="B465" t="s">
+        <v>70</v>
+      </c>
+      <c r="C465" t="s">
+        <v>73</v>
+      </c>
+      <c r="D465" t="s">
+        <v>75</v>
+      </c>
+      <c r="E465" t="s">
+        <v>85</v>
+      </c>
+      <c r="F465">
+        <v>6.764292785</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466" t="s">
+        <v>70</v>
+      </c>
+      <c r="C466" t="s">
+        <v>72</v>
+      </c>
+      <c r="D466" t="s">
+        <v>75</v>
+      </c>
+      <c r="E466" t="s">
+        <v>85</v>
+      </c>
+      <c r="F466">
+        <v>5.753391711</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" t="s">
+        <v>70</v>
+      </c>
+      <c r="C467" t="s">
+        <v>73</v>
+      </c>
+      <c r="D467" t="s">
+        <v>74</v>
+      </c>
+      <c r="E467" t="s">
+        <v>85</v>
+      </c>
+      <c r="F467">
+        <v>6.916162879</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>24</v>
+      </c>
+      <c r="B468" t="s">
+        <v>70</v>
+      </c>
+      <c r="C468" t="s">
+        <v>72</v>
+      </c>
+      <c r="D468" t="s">
+        <v>75</v>
+      </c>
+      <c r="E468" t="s">
+        <v>85</v>
+      </c>
+      <c r="F468">
+        <v>6.155071623</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="s">
+        <v>25</v>
+      </c>
+      <c r="B469" t="s">
+        <v>70</v>
+      </c>
+      <c r="C469" t="s">
+        <v>73</v>
+      </c>
+      <c r="D469" t="s">
+        <v>74</v>
+      </c>
+      <c r="E469" t="s">
+        <v>85</v>
+      </c>
+      <c r="F469">
+        <v>5.956590637</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="s">
+        <v>26</v>
+      </c>
+      <c r="B470" t="s">
+        <v>71</v>
+      </c>
+      <c r="C470" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" t="s">
+        <v>75</v>
+      </c>
+      <c r="E470" t="s">
+        <v>85</v>
+      </c>
+      <c r="F470">
+        <v>5.189492757</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="s">
+        <v>27</v>
+      </c>
+      <c r="B471" t="s">
+        <v>71</v>
+      </c>
+      <c r="C471" t="s">
+        <v>73</v>
+      </c>
+      <c r="D471" t="s">
+        <v>75</v>
+      </c>
+      <c r="E471" t="s">
+        <v>85</v>
+      </c>
+      <c r="F471">
+        <v>5.118976688</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="s">
+        <v>28</v>
+      </c>
+      <c r="B472" t="s">
+        <v>71</v>
+      </c>
+      <c r="C472" t="s">
+        <v>73</v>
+      </c>
+      <c r="D472" t="s">
+        <v>75</v>
+      </c>
+      <c r="E472" t="s">
+        <v>85</v>
+      </c>
+      <c r="F472">
+        <v>5.256007649</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="s">
+        <v>29</v>
+      </c>
+      <c r="B473" t="s">
+        <v>71</v>
+      </c>
+      <c r="C473" t="s">
+        <v>72</v>
+      </c>
+      <c r="D473" t="s">
+        <v>75</v>
+      </c>
+      <c r="E473" t="s">
+        <v>85</v>
+      </c>
+      <c r="F473">
+        <v>5.138728416</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="s">
+        <v>30</v>
+      </c>
+      <c r="B474" t="s">
+        <v>70</v>
+      </c>
+      <c r="C474" t="s">
+        <v>73</v>
+      </c>
+      <c r="D474" t="s">
+        <v>74</v>
+      </c>
+      <c r="E474" t="s">
+        <v>85</v>
+      </c>
+      <c r="F474">
+        <v>5.725670766</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="s">
+        <v>31</v>
+      </c>
+      <c r="B475" t="s">
+        <v>71</v>
+      </c>
+      <c r="C475" t="s">
+        <v>72</v>
+      </c>
+      <c r="D475" t="s">
+        <v>75</v>
+      </c>
+      <c r="E475" t="s">
+        <v>85</v>
+      </c>
+      <c r="F475">
+        <v>4.806820066</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" t="s">
+        <v>32</v>
+      </c>
+      <c r="B476" t="s">
+        <v>71</v>
+      </c>
+      <c r="C476" t="s">
+        <v>73</v>
+      </c>
+      <c r="D476" t="s">
+        <v>75</v>
+      </c>
+      <c r="E476" t="s">
+        <v>85</v>
+      </c>
+      <c r="F476">
+        <v>5.294061074</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="s">
+        <v>33</v>
+      </c>
+      <c r="B477" t="s">
+        <v>71</v>
+      </c>
+      <c r="C477" t="s">
+        <v>72</v>
+      </c>
+      <c r="D477" t="s">
+        <v>75</v>
+      </c>
+      <c r="E477" t="s">
+        <v>85</v>
+      </c>
+      <c r="F477">
+        <v>5.306480781</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="s">
+        <v>34</v>
+      </c>
+      <c r="B478" t="s">
+        <v>71</v>
+      </c>
+      <c r="C478" t="s">
+        <v>73</v>
+      </c>
+      <c r="D478" t="s">
+        <v>75</v>
+      </c>
+      <c r="E478" t="s">
+        <v>85</v>
+      </c>
+      <c r="F478">
+        <v>5.535180042</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" t="s">
+        <v>70</v>
+      </c>
+      <c r="C479" t="s">
+        <v>72</v>
+      </c>
+      <c r="D479" t="s">
+        <v>75</v>
+      </c>
+      <c r="E479" t="s">
+        <v>85</v>
+      </c>
+      <c r="F479">
+        <v>4.636718525</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>36</v>
+      </c>
+      <c r="B480" t="s">
+        <v>70</v>
+      </c>
+      <c r="C480" t="s">
+        <v>72</v>
+      </c>
+      <c r="D480" t="s">
+        <v>75</v>
+      </c>
+      <c r="E480" t="s">
+        <v>85</v>
+      </c>
+      <c r="F480">
+        <v>5.727613731</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="s">
+        <v>37</v>
+      </c>
+      <c r="B481" t="s">
+        <v>70</v>
+      </c>
+      <c r="C481" t="s">
+        <v>73</v>
+      </c>
+      <c r="D481" t="s">
+        <v>74</v>
+      </c>
+      <c r="E481" t="s">
+        <v>85</v>
+      </c>
+      <c r="F481">
+        <v>6.543831305</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="s">
+        <v>38</v>
+      </c>
+      <c r="B482" t="s">
+        <v>70</v>
+      </c>
+      <c r="C482" t="s">
+        <v>72</v>
+      </c>
+      <c r="D482" t="s">
+        <v>76</v>
+      </c>
+      <c r="E482" t="s">
+        <v>85</v>
+      </c>
+      <c r="F482">
+        <v>6.154988616</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="s">
+        <v>39</v>
+      </c>
+      <c r="B483" t="s">
+        <v>70</v>
+      </c>
+      <c r="C483" t="s">
+        <v>73</v>
+      </c>
+      <c r="D483" t="s">
+        <v>76</v>
+      </c>
+      <c r="E483" t="s">
+        <v>85</v>
+      </c>
+      <c r="F483">
+        <v>6.575993516</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="s">
+        <v>40</v>
+      </c>
+      <c r="B484" t="s">
+        <v>70</v>
+      </c>
+      <c r="C484" t="s">
+        <v>72</v>
+      </c>
+      <c r="D484" t="s">
+        <v>76</v>
+      </c>
+      <c r="E484" t="s">
+        <v>85</v>
+      </c>
+      <c r="F484">
+        <v>4.434136379</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" t="s">
+        <v>41</v>
+      </c>
+      <c r="B485" t="s">
+        <v>70</v>
+      </c>
+      <c r="C485" t="s">
+        <v>73</v>
+      </c>
+      <c r="D485" t="s">
+        <v>76</v>
+      </c>
+      <c r="E485" t="s">
+        <v>85</v>
+      </c>
+      <c r="F485">
+        <v>5.934770999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" t="s">
+        <v>42</v>
+      </c>
+      <c r="B486" t="s">
+        <v>71</v>
+      </c>
+      <c r="C486" t="s">
+        <v>72</v>
+      </c>
+      <c r="D486" t="s">
+        <v>76</v>
+      </c>
+      <c r="E486" t="s">
+        <v>85</v>
+      </c>
+      <c r="F486">
+        <v>5.007119455</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" t="s">
+        <v>43</v>
+      </c>
+      <c r="B487" t="s">
+        <v>71</v>
+      </c>
+      <c r="C487" t="s">
+        <v>73</v>
+      </c>
+      <c r="D487" t="s">
+        <v>76</v>
+      </c>
+      <c r="E487" t="s">
+        <v>85</v>
+      </c>
+      <c r="F487">
+        <v>5.087578779</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" t="s">
+        <v>44</v>
+      </c>
+      <c r="B488" t="s">
+        <v>71</v>
+      </c>
+      <c r="C488" t="s">
+        <v>73</v>
+      </c>
+      <c r="D488" t="s">
+        <v>76</v>
+      </c>
+      <c r="E488" t="s">
+        <v>85</v>
+      </c>
+      <c r="F488">
+        <v>4.949916744</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" t="s">
+        <v>45</v>
+      </c>
+      <c r="B489" t="s">
+        <v>71</v>
+      </c>
+      <c r="C489" t="s">
+        <v>72</v>
+      </c>
+      <c r="D489" t="s">
+        <v>76</v>
+      </c>
+      <c r="E489" t="s">
+        <v>85</v>
+      </c>
+      <c r="F489">
+        <v>5.159227818</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" t="s">
+        <v>46</v>
+      </c>
+      <c r="B490" t="s">
+        <v>70</v>
+      </c>
+      <c r="C490" t="s">
+        <v>73</v>
+      </c>
+      <c r="D490" t="s">
+        <v>76</v>
+      </c>
+      <c r="E490" t="s">
+        <v>85</v>
+      </c>
+      <c r="F490">
+        <v>5.816892488</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" t="s">
+        <v>47</v>
+      </c>
+      <c r="B491" t="s">
+        <v>71</v>
+      </c>
+      <c r="C491" t="s">
+        <v>72</v>
+      </c>
+      <c r="D491" t="s">
+        <v>76</v>
+      </c>
+      <c r="E491" t="s">
+        <v>85</v>
+      </c>
+      <c r="F491">
+        <v>5.102325928</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" t="s">
+        <v>48</v>
+      </c>
+      <c r="B492" t="s">
+        <v>71</v>
+      </c>
+      <c r="C492" t="s">
+        <v>73</v>
+      </c>
+      <c r="D492" t="s">
+        <v>76</v>
+      </c>
+      <c r="E492" t="s">
+        <v>85</v>
+      </c>
+      <c r="F492">
+        <v>5.296279732</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" t="s">
+        <v>49</v>
+      </c>
+      <c r="B493" t="s">
+        <v>71</v>
+      </c>
+      <c r="C493" t="s">
+        <v>72</v>
+      </c>
+      <c r="D493" t="s">
+        <v>76</v>
+      </c>
+      <c r="E493" t="s">
+        <v>85</v>
+      </c>
+      <c r="F493">
+        <v>4.752279079</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" t="s">
+        <v>50</v>
+      </c>
+      <c r="B494" t="s">
+        <v>71</v>
+      </c>
+      <c r="C494" t="s">
+        <v>73</v>
+      </c>
+      <c r="D494" t="s">
+        <v>76</v>
+      </c>
+      <c r="E494" t="s">
+        <v>85</v>
+      </c>
+      <c r="F494">
+        <v>5.419614918</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" t="s">
+        <v>51</v>
+      </c>
+      <c r="B495" t="s">
+        <v>70</v>
+      </c>
+      <c r="C495" t="s">
+        <v>72</v>
+      </c>
+      <c r="D495" t="s">
+        <v>76</v>
+      </c>
+      <c r="E495" t="s">
+        <v>85</v>
+      </c>
+      <c r="F495">
+        <v>4.791854076</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" t="s">
+        <v>52</v>
+      </c>
+      <c r="B496" t="s">
+        <v>70</v>
+      </c>
+      <c r="C496" t="s">
+        <v>72</v>
+      </c>
+      <c r="D496" t="s">
+        <v>76</v>
+      </c>
+      <c r="E496" t="s">
+        <v>85</v>
+      </c>
+      <c r="F496">
+        <v>5.321128956</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" t="s">
+        <v>53</v>
+      </c>
+      <c r="B497" t="s">
+        <v>70</v>
+      </c>
+      <c r="C497" t="s">
+        <v>73</v>
+      </c>
+      <c r="D497" t="s">
+        <v>76</v>
+      </c>
+      <c r="E497" t="s">
+        <v>85</v>
+      </c>
+      <c r="F497">
+        <v>6.163727465</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" t="s">
+        <v>54</v>
+      </c>
+      <c r="B498" t="s">
+        <v>70</v>
+      </c>
+      <c r="C498" t="s">
+        <v>72</v>
+      </c>
+      <c r="D498" t="s">
+        <v>77</v>
+      </c>
+      <c r="E498" t="s">
+        <v>85</v>
+      </c>
+      <c r="F498">
+        <v>4.725125686</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" t="s">
+        <v>55</v>
+      </c>
+      <c r="B499" t="s">
+        <v>70</v>
+      </c>
+      <c r="C499" t="s">
+        <v>73</v>
+      </c>
+      <c r="D499" t="s">
+        <v>77</v>
+      </c>
+      <c r="E499" t="s">
+        <v>85</v>
+      </c>
+      <c r="F499">
+        <v>5.630701623</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" t="s">
+        <v>56</v>
+      </c>
+      <c r="B500" t="s">
+        <v>70</v>
+      </c>
+      <c r="C500" t="s">
+        <v>72</v>
+      </c>
+      <c r="D500" t="s">
+        <v>77</v>
+      </c>
+      <c r="E500" t="s">
+        <v>85</v>
+      </c>
+      <c r="F500">
+        <v>4.969826117</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" t="s">
+        <v>57</v>
+      </c>
+      <c r="B501" t="s">
+        <v>70</v>
+      </c>
+      <c r="C501" t="s">
+        <v>73</v>
+      </c>
+      <c r="D501" t="s">
+        <v>77</v>
+      </c>
+      <c r="E501" t="s">
+        <v>85</v>
+      </c>
+      <c r="F501">
+        <v>6.738857497</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="s">
+        <v>58</v>
+      </c>
+      <c r="B502" t="s">
+        <v>71</v>
+      </c>
+      <c r="C502" t="s">
+        <v>72</v>
+      </c>
+      <c r="D502" t="s">
+        <v>77</v>
+      </c>
+      <c r="E502" t="s">
+        <v>85</v>
+      </c>
+      <c r="F502">
+        <v>5.017458207</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="s">
+        <v>59</v>
+      </c>
+      <c r="B503" t="s">
+        <v>71</v>
+      </c>
+      <c r="C503" t="s">
+        <v>73</v>
+      </c>
+      <c r="D503" t="s">
+        <v>77</v>
+      </c>
+      <c r="E503" t="s">
+        <v>85</v>
+      </c>
+      <c r="F503">
+        <v>4.978919253</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="s">
+        <v>60</v>
+      </c>
+      <c r="B504" t="s">
+        <v>71</v>
+      </c>
+      <c r="C504" t="s">
+        <v>73</v>
+      </c>
+      <c r="D504" t="s">
+        <v>77</v>
+      </c>
+      <c r="E504" t="s">
+        <v>85</v>
+      </c>
+      <c r="F504">
+        <v>5.358716444</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" t="s">
+        <v>61</v>
+      </c>
+      <c r="B505" t="s">
+        <v>71</v>
+      </c>
+      <c r="C505" t="s">
+        <v>72</v>
+      </c>
+      <c r="D505" t="s">
+        <v>77</v>
+      </c>
+      <c r="E505" t="s">
+        <v>85</v>
+      </c>
+      <c r="F505">
+        <v>5.027690179</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" t="s">
+        <v>62</v>
+      </c>
+      <c r="B506" t="s">
+        <v>70</v>
+      </c>
+      <c r="C506" t="s">
+        <v>73</v>
+      </c>
+      <c r="D506" t="s">
+        <v>77</v>
+      </c>
+      <c r="E506" t="s">
+        <v>85</v>
+      </c>
+      <c r="F506">
+        <v>5.767986482</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" t="s">
+        <v>63</v>
+      </c>
+      <c r="B507" t="s">
+        <v>71</v>
+      </c>
+      <c r="C507" t="s">
+        <v>72</v>
+      </c>
+      <c r="D507" t="s">
+        <v>77</v>
+      </c>
+      <c r="E507" t="s">
+        <v>85</v>
+      </c>
+      <c r="F507">
+        <v>4.613686737</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" t="s">
+        <v>64</v>
+      </c>
+      <c r="B508" t="s">
+        <v>71</v>
+      </c>
+      <c r="C508" t="s">
+        <v>73</v>
+      </c>
+      <c r="D508" t="s">
+        <v>77</v>
+      </c>
+      <c r="E508" t="s">
+        <v>85</v>
+      </c>
+      <c r="F508">
+        <v>4.803644603</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" t="s">
+        <v>65</v>
+      </c>
+      <c r="B509" t="s">
+        <v>71</v>
+      </c>
+      <c r="C509" t="s">
+        <v>72</v>
+      </c>
+      <c r="D509" t="s">
+        <v>77</v>
+      </c>
+      <c r="E509" t="s">
+        <v>85</v>
+      </c>
+      <c r="F509">
+        <v>5.082185378</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" t="s">
+        <v>66</v>
+      </c>
+      <c r="B510" t="s">
+        <v>71</v>
+      </c>
+      <c r="C510" t="s">
+        <v>73</v>
+      </c>
+      <c r="D510" t="s">
+        <v>77</v>
+      </c>
+      <c r="E510" t="s">
+        <v>85</v>
+      </c>
+      <c r="F510">
+        <v>5.046156371</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" t="s">
+        <v>67</v>
+      </c>
+      <c r="B511" t="s">
+        <v>70</v>
+      </c>
+      <c r="C511" t="s">
+        <v>72</v>
+      </c>
+      <c r="D511" t="s">
+        <v>77</v>
+      </c>
+      <c r="E511" t="s">
+        <v>85</v>
+      </c>
+      <c r="F511">
+        <v>5.416855637</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" t="s">
+        <v>68</v>
+      </c>
+      <c r="B512" t="s">
+        <v>70</v>
+      </c>
+      <c r="C512" t="s">
+        <v>72</v>
+      </c>
+      <c r="D512" t="s">
+        <v>77</v>
+      </c>
+      <c r="E512" t="s">
+        <v>85</v>
+      </c>
+      <c r="F512">
+        <v>5.768233336</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" t="s">
+        <v>69</v>
+      </c>
+      <c r="B513" t="s">
+        <v>70</v>
+      </c>
+      <c r="C513" t="s">
+        <v>73</v>
+      </c>
+      <c r="D513" t="s">
+        <v>77</v>
+      </c>
+      <c r="E513" t="s">
+        <v>85</v>
+      </c>
+      <c r="F513">
+        <v>6.238319805</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" t="s">
+        <v>6</v>
+      </c>
+      <c r="B514" t="s">
+        <v>70</v>
+      </c>
+      <c r="C514" t="s">
+        <v>72</v>
+      </c>
+      <c r="D514" t="s">
+        <v>74</v>
+      </c>
+      <c r="E514" t="s">
+        <v>86</v>
+      </c>
+      <c r="F514">
+        <v>1.335423284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" t="s">
+        <v>70</v>
+      </c>
+      <c r="C515" t="s">
+        <v>73</v>
+      </c>
+      <c r="D515" t="s">
+        <v>75</v>
+      </c>
+      <c r="E515" t="s">
+        <v>86</v>
+      </c>
+      <c r="F515">
+        <v>1.782371737</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" t="s">
+        <v>8</v>
+      </c>
+      <c r="B516" t="s">
+        <v>70</v>
+      </c>
+      <c r="C516" t="s">
+        <v>72</v>
+      </c>
+      <c r="D516" t="s">
+        <v>74</v>
+      </c>
+      <c r="E516" t="s">
+        <v>86</v>
+      </c>
+      <c r="F516">
+        <v>2.144615837</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" t="s">
+        <v>70</v>
+      </c>
+      <c r="C517" t="s">
+        <v>73</v>
+      </c>
+      <c r="D517" t="s">
+        <v>75</v>
+      </c>
+      <c r="E517" t="s">
+        <v>86</v>
+      </c>
+      <c r="F517">
+        <v>1.946441104</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" t="s">
+        <v>71</v>
+      </c>
+      <c r="C518" t="s">
+        <v>72</v>
+      </c>
+      <c r="D518" t="s">
+        <v>74</v>
+      </c>
+      <c r="E518" t="s">
+        <v>86</v>
+      </c>
+      <c r="F518">
+        <v>1.959190397</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" t="s">
+        <v>11</v>
+      </c>
+      <c r="B519" t="s">
+        <v>71</v>
+      </c>
+      <c r="C519" t="s">
+        <v>73</v>
+      </c>
+      <c r="D519" t="s">
+        <v>74</v>
+      </c>
+      <c r="E519" t="s">
+        <v>86</v>
+      </c>
+      <c r="F519">
+        <v>1.678439635</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" t="s">
+        <v>12</v>
+      </c>
+      <c r="B520" t="s">
+        <v>71</v>
+      </c>
+      <c r="C520" t="s">
+        <v>73</v>
+      </c>
+      <c r="D520" t="s">
+        <v>74</v>
+      </c>
+      <c r="E520" t="s">
+        <v>86</v>
+      </c>
+      <c r="F520">
+        <v>1.764080341</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" t="s">
+        <v>13</v>
+      </c>
+      <c r="B521" t="s">
+        <v>71</v>
+      </c>
+      <c r="C521" t="s">
+        <v>72</v>
+      </c>
+      <c r="D521" t="s">
+        <v>74</v>
+      </c>
+      <c r="E521" t="s">
+        <v>86</v>
+      </c>
+      <c r="F521">
+        <v>1.861589101</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" t="s">
+        <v>14</v>
+      </c>
+      <c r="B522" t="s">
+        <v>70</v>
+      </c>
+      <c r="C522" t="s">
+        <v>73</v>
+      </c>
+      <c r="D522" t="s">
+        <v>75</v>
+      </c>
+      <c r="E522" t="s">
+        <v>86</v>
+      </c>
+      <c r="F522">
+        <v>1.47925591</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" t="s">
+        <v>15</v>
+      </c>
+      <c r="B523" t="s">
+        <v>71</v>
+      </c>
+      <c r="C523" t="s">
+        <v>72</v>
+      </c>
+      <c r="D523" t="s">
+        <v>74</v>
+      </c>
+      <c r="E523" t="s">
+        <v>86</v>
+      </c>
+      <c r="F523">
+        <v>1.391932293</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" t="s">
+        <v>16</v>
+      </c>
+      <c r="B524" t="s">
+        <v>71</v>
+      </c>
+      <c r="C524" t="s">
+        <v>73</v>
+      </c>
+      <c r="D524" t="s">
+        <v>74</v>
+      </c>
+      <c r="E524" t="s">
+        <v>86</v>
+      </c>
+      <c r="F524">
+        <v>1.921991386</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" t="s">
+        <v>17</v>
+      </c>
+      <c r="B525" t="s">
+        <v>71</v>
+      </c>
+      <c r="C525" t="s">
+        <v>72</v>
+      </c>
+      <c r="D525" t="s">
+        <v>74</v>
+      </c>
+      <c r="E525" t="s">
+        <v>86</v>
+      </c>
+      <c r="F525">
+        <v>1.878423889</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526" t="s">
+        <v>71</v>
+      </c>
+      <c r="C526" t="s">
+        <v>73</v>
+      </c>
+      <c r="D526" t="s">
+        <v>74</v>
+      </c>
+      <c r="E526" t="s">
+        <v>86</v>
+      </c>
+      <c r="F526">
+        <v>1.793285739</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" t="s">
+        <v>19</v>
+      </c>
+      <c r="B527" t="s">
+        <v>70</v>
+      </c>
+      <c r="C527" t="s">
+        <v>72</v>
+      </c>
+      <c r="D527" t="s">
+        <v>74</v>
+      </c>
+      <c r="E527" t="s">
+        <v>86</v>
+      </c>
+      <c r="F527">
+        <v>1.573318349</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" t="s">
+        <v>20</v>
+      </c>
+      <c r="B528" t="s">
+        <v>70</v>
+      </c>
+      <c r="C528" t="s">
+        <v>72</v>
+      </c>
+      <c r="D528" t="s">
+        <v>74</v>
+      </c>
+      <c r="E528" t="s">
+        <v>86</v>
+      </c>
+      <c r="F528">
+        <v>2.348569387</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" t="s">
+        <v>21</v>
+      </c>
+      <c r="B529" t="s">
+        <v>70</v>
+      </c>
+      <c r="C529" t="s">
+        <v>73</v>
+      </c>
+      <c r="D529" t="s">
+        <v>75</v>
+      </c>
+      <c r="E529" t="s">
+        <v>86</v>
+      </c>
+      <c r="F529">
+        <v>1.480005797</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" t="s">
+        <v>22</v>
+      </c>
+      <c r="B530" t="s">
+        <v>70</v>
+      </c>
+      <c r="C530" t="s">
+        <v>72</v>
+      </c>
+      <c r="D530" t="s">
+        <v>75</v>
+      </c>
+      <c r="E530" t="s">
+        <v>86</v>
+      </c>
+      <c r="F530">
+        <v>1.485376582</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" t="s">
+        <v>23</v>
+      </c>
+      <c r="B531" t="s">
+        <v>70</v>
+      </c>
+      <c r="C531" t="s">
+        <v>73</v>
+      </c>
+      <c r="D531" t="s">
+        <v>74</v>
+      </c>
+      <c r="E531" t="s">
+        <v>86</v>
+      </c>
+      <c r="F531">
+        <v>1.373706837</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" t="s">
+        <v>24</v>
+      </c>
+      <c r="B532" t="s">
+        <v>70</v>
+      </c>
+      <c r="C532" t="s">
+        <v>72</v>
+      </c>
+      <c r="D532" t="s">
+        <v>75</v>
+      </c>
+      <c r="E532" t="s">
+        <v>86</v>
+      </c>
+      <c r="F532">
+        <v>1.576821528</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B533" t="s">
+        <v>70</v>
+      </c>
+      <c r="C533" t="s">
+        <v>73</v>
+      </c>
+      <c r="D533" t="s">
+        <v>74</v>
+      </c>
+      <c r="E533" t="s">
+        <v>86</v>
+      </c>
+      <c r="F533">
+        <v>1.514942383</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" t="s">
+        <v>26</v>
+      </c>
+      <c r="B534" t="s">
+        <v>71</v>
+      </c>
+      <c r="C534" t="s">
+        <v>72</v>
+      </c>
+      <c r="D534" t="s">
+        <v>75</v>
+      </c>
+      <c r="E534" t="s">
+        <v>86</v>
+      </c>
+      <c r="F534">
+        <v>1.922578296</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" t="s">
+        <v>27</v>
+      </c>
+      <c r="B535" t="s">
+        <v>71</v>
+      </c>
+      <c r="C535" t="s">
+        <v>73</v>
+      </c>
+      <c r="D535" t="s">
+        <v>75</v>
+      </c>
+      <c r="E535" t="s">
+        <v>86</v>
+      </c>
+      <c r="F535">
+        <v>2.11936213</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" t="s">
+        <v>28</v>
+      </c>
+      <c r="B536" t="s">
+        <v>71</v>
+      </c>
+      <c r="C536" t="s">
+        <v>73</v>
+      </c>
+      <c r="D536" t="s">
+        <v>75</v>
+      </c>
+      <c r="E536" t="s">
+        <v>86</v>
+      </c>
+      <c r="F536">
+        <v>1.784904756</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" t="s">
+        <v>29</v>
+      </c>
+      <c r="B537" t="s">
+        <v>71</v>
+      </c>
+      <c r="C537" t="s">
+        <v>72</v>
+      </c>
+      <c r="D537" t="s">
+        <v>75</v>
+      </c>
+      <c r="E537" t="s">
+        <v>86</v>
+      </c>
+      <c r="F537">
+        <v>2.099849429</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" t="s">
+        <v>30</v>
+      </c>
+      <c r="B538" t="s">
+        <v>70</v>
+      </c>
+      <c r="C538" t="s">
+        <v>73</v>
+      </c>
+      <c r="D538" t="s">
+        <v>74</v>
+      </c>
+      <c r="E538" t="s">
+        <v>86</v>
+      </c>
+      <c r="F538">
+        <v>1.60754061</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" t="s">
+        <v>31</v>
+      </c>
+      <c r="B539" t="s">
+        <v>71</v>
+      </c>
+      <c r="C539" t="s">
+        <v>72</v>
+      </c>
+      <c r="D539" t="s">
+        <v>75</v>
+      </c>
+      <c r="E539" t="s">
+        <v>86</v>
+      </c>
+      <c r="F539">
+        <v>2.661185835</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" t="s">
+        <v>32</v>
+      </c>
+      <c r="B540" t="s">
+        <v>71</v>
+      </c>
+      <c r="C540" t="s">
+        <v>73</v>
+      </c>
+      <c r="D540" t="s">
+        <v>75</v>
+      </c>
+      <c r="E540" t="s">
+        <v>86</v>
+      </c>
+      <c r="F540">
+        <v>1.836879545</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" t="s">
+        <v>33</v>
+      </c>
+      <c r="B541" t="s">
+        <v>71</v>
+      </c>
+      <c r="C541" t="s">
+        <v>72</v>
+      </c>
+      <c r="D541" t="s">
+        <v>75</v>
+      </c>
+      <c r="E541" t="s">
+        <v>86</v>
+      </c>
+      <c r="F541">
+        <v>1.987461554</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" t="s">
+        <v>34</v>
+      </c>
+      <c r="B542" t="s">
+        <v>71</v>
+      </c>
+      <c r="C542" t="s">
+        <v>73</v>
+      </c>
+      <c r="D542" t="s">
+        <v>75</v>
+      </c>
+      <c r="E542" t="s">
+        <v>86</v>
+      </c>
+      <c r="F542">
+        <v>1.711872285</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" t="s">
+        <v>35</v>
+      </c>
+      <c r="B543" t="s">
+        <v>70</v>
+      </c>
+      <c r="C543" t="s">
+        <v>72</v>
+      </c>
+      <c r="D543" t="s">
+        <v>75</v>
+      </c>
+      <c r="E543" t="s">
+        <v>86</v>
+      </c>
+      <c r="F543">
+        <v>2.870029282</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" t="s">
+        <v>36</v>
+      </c>
+      <c r="B544" t="s">
+        <v>70</v>
+      </c>
+      <c r="C544" t="s">
+        <v>72</v>
+      </c>
+      <c r="D544" t="s">
+        <v>75</v>
+      </c>
+      <c r="E544" t="s">
+        <v>86</v>
+      </c>
+      <c r="F544">
+        <v>2.013346742</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" t="s">
+        <v>70</v>
+      </c>
+      <c r="C545" t="s">
+        <v>73</v>
+      </c>
+      <c r="D545" t="s">
+        <v>74</v>
+      </c>
+      <c r="E545" t="s">
+        <v>86</v>
+      </c>
+      <c r="F545">
+        <v>1.460525347</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" t="s">
+        <v>38</v>
+      </c>
+      <c r="B546" t="s">
+        <v>70</v>
+      </c>
+      <c r="C546" t="s">
+        <v>72</v>
+      </c>
+      <c r="D546" t="s">
+        <v>76</v>
+      </c>
+      <c r="E546" t="s">
+        <v>86</v>
+      </c>
+      <c r="F546">
+        <v>1.714438154</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" t="s">
+        <v>39</v>
+      </c>
+      <c r="B547" t="s">
+        <v>70</v>
+      </c>
+      <c r="C547" t="s">
+        <v>73</v>
+      </c>
+      <c r="D547" t="s">
+        <v>76</v>
+      </c>
+      <c r="E547" t="s">
+        <v>86</v>
+      </c>
+      <c r="F547">
+        <v>1.538815271</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" t="s">
+        <v>40</v>
+      </c>
+      <c r="B548" t="s">
+        <v>70</v>
+      </c>
+      <c r="C548" t="s">
+        <v>72</v>
+      </c>
+      <c r="D548" t="s">
+        <v>76</v>
+      </c>
+      <c r="E548" t="s">
+        <v>86</v>
+      </c>
+      <c r="F548">
+        <v>2.56766331</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" t="s">
+        <v>41</v>
+      </c>
+      <c r="B549" t="s">
+        <v>70</v>
+      </c>
+      <c r="C549" t="s">
+        <v>73</v>
+      </c>
+      <c r="D549" t="s">
+        <v>76</v>
+      </c>
+      <c r="E549" t="s">
+        <v>86</v>
+      </c>
+      <c r="F549">
+        <v>1.89910144</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" t="s">
+        <v>42</v>
+      </c>
+      <c r="B550" t="s">
+        <v>71</v>
+      </c>
+      <c r="C550" t="s">
+        <v>72</v>
+      </c>
+      <c r="D550" t="s">
+        <v>76</v>
+      </c>
+      <c r="E550" t="s">
+        <v>86</v>
+      </c>
+      <c r="F550">
+        <v>2.069871657</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" t="s">
+        <v>43</v>
+      </c>
+      <c r="B551" t="s">
+        <v>71</v>
+      </c>
+      <c r="C551" t="s">
+        <v>73</v>
+      </c>
+      <c r="D551" t="s">
+        <v>76</v>
+      </c>
+      <c r="E551" t="s">
+        <v>86</v>
+      </c>
+      <c r="F551">
+        <v>2.235571944</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" t="s">
+        <v>44</v>
+      </c>
+      <c r="B552" t="s">
+        <v>71</v>
+      </c>
+      <c r="C552" t="s">
+        <v>73</v>
+      </c>
+      <c r="D552" t="s">
+        <v>76</v>
+      </c>
+      <c r="E552" t="s">
+        <v>86</v>
+      </c>
+      <c r="F552">
+        <v>2.55010267</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" t="s">
+        <v>45</v>
+      </c>
+      <c r="B553" t="s">
+        <v>71</v>
+      </c>
+      <c r="C553" t="s">
+        <v>72</v>
+      </c>
+      <c r="D553" t="s">
+        <v>76</v>
+      </c>
+      <c r="E553" t="s">
+        <v>86</v>
+      </c>
+      <c r="F553">
+        <v>2.175994606</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" t="s">
+        <v>46</v>
+      </c>
+      <c r="B554" t="s">
+        <v>70</v>
+      </c>
+      <c r="C554" t="s">
+        <v>73</v>
+      </c>
+      <c r="D554" t="s">
+        <v>76</v>
+      </c>
+      <c r="E554" t="s">
+        <v>86</v>
+      </c>
+      <c r="F554">
+        <v>1.87085256</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" t="s">
+        <v>47</v>
+      </c>
+      <c r="B555" t="s">
+        <v>71</v>
+      </c>
+      <c r="C555" t="s">
+        <v>72</v>
+      </c>
+      <c r="D555" t="s">
+        <v>76</v>
+      </c>
+      <c r="E555" t="s">
+        <v>86</v>
+      </c>
+      <c r="F555">
+        <v>2.087521012</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" t="s">
+        <v>48</v>
+      </c>
+      <c r="B556" t="s">
+        <v>71</v>
+      </c>
+      <c r="C556" t="s">
+        <v>73</v>
+      </c>
+      <c r="D556" t="s">
+        <v>76</v>
+      </c>
+      <c r="E556" t="s">
+        <v>86</v>
+      </c>
+      <c r="F556">
+        <v>1.883971841</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" t="s">
+        <v>49</v>
+      </c>
+      <c r="B557" t="s">
+        <v>71</v>
+      </c>
+      <c r="C557" t="s">
+        <v>72</v>
+      </c>
+      <c r="D557" t="s">
+        <v>76</v>
+      </c>
+      <c r="E557" t="s">
+        <v>86</v>
+      </c>
+      <c r="F557">
+        <v>2.528896107</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" t="s">
+        <v>50</v>
+      </c>
+      <c r="B558" t="s">
+        <v>71</v>
+      </c>
+      <c r="C558" t="s">
+        <v>73</v>
+      </c>
+      <c r="D558" t="s">
+        <v>76</v>
+      </c>
+      <c r="E558" t="s">
+        <v>86</v>
+      </c>
+      <c r="F558">
+        <v>1.822426672</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" t="s">
+        <v>51</v>
+      </c>
+      <c r="B559" t="s">
+        <v>70</v>
+      </c>
+      <c r="C559" t="s">
+        <v>72</v>
+      </c>
+      <c r="D559" t="s">
+        <v>76</v>
+      </c>
+      <c r="E559" t="s">
+        <v>86</v>
+      </c>
+      <c r="F559">
+        <v>2.925640667</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" t="s">
+        <v>52</v>
+      </c>
+      <c r="B560" t="s">
+        <v>70</v>
+      </c>
+      <c r="C560" t="s">
+        <v>72</v>
+      </c>
+      <c r="D560" t="s">
+        <v>76</v>
+      </c>
+      <c r="E560" t="s">
+        <v>86</v>
+      </c>
+      <c r="F560">
+        <v>2.121854099</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" t="s">
+        <v>53</v>
+      </c>
+      <c r="B561" t="s">
+        <v>70</v>
+      </c>
+      <c r="C561" t="s">
+        <v>73</v>
+      </c>
+      <c r="D561" t="s">
+        <v>76</v>
+      </c>
+      <c r="E561" t="s">
+        <v>86</v>
+      </c>
+      <c r="F561">
+        <v>1.566724406</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" t="s">
+        <v>54</v>
+      </c>
+      <c r="B562" t="s">
+        <v>70</v>
+      </c>
+      <c r="C562" t="s">
+        <v>72</v>
+      </c>
+      <c r="D562" t="s">
+        <v>77</v>
+      </c>
+      <c r="E562" t="s">
+        <v>86</v>
+      </c>
+      <c r="F562">
+        <v>2.697810333</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" t="s">
+        <v>55</v>
+      </c>
+      <c r="B563" t="s">
+        <v>70</v>
+      </c>
+      <c r="C563" t="s">
+        <v>73</v>
+      </c>
+      <c r="D563" t="s">
+        <v>77</v>
+      </c>
+      <c r="E563" t="s">
+        <v>86</v>
+      </c>
+      <c r="F563">
+        <v>1.735320332</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" t="s">
+        <v>56</v>
+      </c>
+      <c r="B564" t="s">
+        <v>70</v>
+      </c>
+      <c r="C564" t="s">
+        <v>72</v>
+      </c>
+      <c r="D564" t="s">
+        <v>77</v>
+      </c>
+      <c r="E564" t="s">
+        <v>86</v>
+      </c>
+      <c r="F564">
+        <v>2.284693714</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" t="s">
+        <v>57</v>
+      </c>
+      <c r="B565" t="s">
+        <v>70</v>
+      </c>
+      <c r="C565" t="s">
+        <v>73</v>
+      </c>
+      <c r="D565" t="s">
+        <v>77</v>
+      </c>
+      <c r="E565" t="s">
+        <v>86</v>
+      </c>
+      <c r="F565">
+        <v>1.27767325</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" t="s">
+        <v>58</v>
+      </c>
+      <c r="B566" t="s">
+        <v>71</v>
+      </c>
+      <c r="C566" t="s">
+        <v>72</v>
+      </c>
+      <c r="D566" t="s">
+        <v>77</v>
+      </c>
+      <c r="E566" t="s">
+        <v>86</v>
+      </c>
+      <c r="F566">
+        <v>2.233135034</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" t="s">
+        <v>59</v>
+      </c>
+      <c r="B567" t="s">
+        <v>71</v>
+      </c>
+      <c r="C567" t="s">
+        <v>73</v>
+      </c>
+      <c r="D567" t="s">
+        <v>77</v>
+      </c>
+      <c r="E567" t="s">
+        <v>86</v>
+      </c>
+      <c r="F567">
+        <v>1.908042505</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" t="s">
+        <v>60</v>
+      </c>
+      <c r="B568" t="s">
+        <v>71</v>
+      </c>
+      <c r="C568" t="s">
+        <v>73</v>
+      </c>
+      <c r="D568" t="s">
+        <v>77</v>
+      </c>
+      <c r="E568" t="s">
+        <v>86</v>
+      </c>
+      <c r="F568">
+        <v>1.867933497</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" t="s">
+        <v>61</v>
+      </c>
+      <c r="B569" t="s">
+        <v>71</v>
+      </c>
+      <c r="C569" t="s">
+        <v>72</v>
+      </c>
+      <c r="D569" t="s">
+        <v>77</v>
+      </c>
+      <c r="E569" t="s">
+        <v>86</v>
+      </c>
+      <c r="F569">
+        <v>2.256814376</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" t="s">
+        <v>62</v>
+      </c>
+      <c r="B570" t="s">
+        <v>70</v>
+      </c>
+      <c r="C570" t="s">
+        <v>73</v>
+      </c>
+      <c r="D570" t="s">
+        <v>77</v>
+      </c>
+      <c r="E570" t="s">
+        <v>86</v>
+      </c>
+      <c r="F570">
+        <v>1.885292738</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" t="s">
+        <v>63</v>
+      </c>
+      <c r="B571" t="s">
+        <v>71</v>
+      </c>
+      <c r="C571" t="s">
+        <v>72</v>
+      </c>
+      <c r="D571" t="s">
+        <v>77</v>
+      </c>
+      <c r="E571" t="s">
+        <v>86</v>
+      </c>
+      <c r="F571">
+        <v>2.199475506</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" t="s">
+        <v>64</v>
+      </c>
+      <c r="B572" t="s">
+        <v>71</v>
+      </c>
+      <c r="C572" t="s">
+        <v>73</v>
+      </c>
+      <c r="D572" t="s">
+        <v>77</v>
+      </c>
+      <c r="E572" t="s">
+        <v>86</v>
+      </c>
+      <c r="F572">
+        <v>2.073065258</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" t="s">
+        <v>65</v>
+      </c>
+      <c r="B573" t="s">
+        <v>71</v>
+      </c>
+      <c r="C573" t="s">
+        <v>72</v>
+      </c>
+      <c r="D573" t="s">
+        <v>77</v>
+      </c>
+      <c r="E573" t="s">
+        <v>86</v>
+      </c>
+      <c r="F573">
+        <v>2.228276516</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6">
+      <c r="A574" t="s">
+        <v>66</v>
+      </c>
+      <c r="B574" t="s">
+        <v>71</v>
+      </c>
+      <c r="C574" t="s">
+        <v>73</v>
+      </c>
+      <c r="D574" t="s">
+        <v>77</v>
+      </c>
+      <c r="E574" t="s">
+        <v>86</v>
+      </c>
+      <c r="F574">
+        <v>1.942625607</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" t="s">
+        <v>67</v>
+      </c>
+      <c r="B575" t="s">
+        <v>70</v>
+      </c>
+      <c r="C575" t="s">
+        <v>72</v>
+      </c>
+      <c r="D575" t="s">
+        <v>77</v>
+      </c>
+      <c r="E575" t="s">
+        <v>86</v>
+      </c>
+      <c r="F575">
+        <v>1.635083712</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6">
+      <c r="A576" t="s">
+        <v>68</v>
+      </c>
+      <c r="B576" t="s">
+        <v>70</v>
+      </c>
+      <c r="C576" t="s">
+        <v>72</v>
+      </c>
+      <c r="D576" t="s">
+        <v>77</v>
+      </c>
+      <c r="E576" t="s">
+        <v>86</v>
+      </c>
+      <c r="F576">
+        <v>1.512067679</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" t="s">
+        <v>69</v>
+      </c>
+      <c r="B577" t="s">
+        <v>70</v>
+      </c>
+      <c r="C577" t="s">
+        <v>73</v>
+      </c>
+      <c r="D577" t="s">
+        <v>77</v>
+      </c>
+      <c r="E577" t="s">
+        <v>86</v>
+      </c>
+      <c r="F577">
+        <v>1.268195228</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
+      <c r="A578" t="s">
+        <v>6</v>
+      </c>
+      <c r="B578" t="s">
+        <v>70</v>
+      </c>
+      <c r="C578" t="s">
+        <v>72</v>
+      </c>
+      <c r="D578" t="s">
+        <v>74</v>
+      </c>
+      <c r="E578" t="s">
+        <v>87</v>
+      </c>
+      <c r="F578">
+        <v>2.2384544</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="A579" t="s">
+        <v>7</v>
+      </c>
+      <c r="B579" t="s">
+        <v>70</v>
+      </c>
+      <c r="C579" t="s">
+        <v>73</v>
+      </c>
+      <c r="D579" t="s">
+        <v>75</v>
+      </c>
+      <c r="E579" t="s">
+        <v>87</v>
+      </c>
+      <c r="F579">
+        <v>3.014790306</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
+      <c r="A580" t="s">
+        <v>8</v>
+      </c>
+      <c r="B580" t="s">
+        <v>70</v>
+      </c>
+      <c r="C580" t="s">
+        <v>72</v>
+      </c>
+      <c r="D580" t="s">
+        <v>74</v>
+      </c>
+      <c r="E580" t="s">
+        <v>87</v>
+      </c>
+      <c r="F580">
+        <v>4.238488036</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="A581" t="s">
+        <v>9</v>
+      </c>
+      <c r="B581" t="s">
+        <v>70</v>
+      </c>
+      <c r="C581" t="s">
+        <v>73</v>
+      </c>
+      <c r="D581" t="s">
+        <v>75</v>
+      </c>
+      <c r="E581" t="s">
+        <v>87</v>
+      </c>
+      <c r="F581">
+        <v>3.342413625</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" t="s">
+        <v>10</v>
+      </c>
+      <c r="B582" t="s">
+        <v>71</v>
+      </c>
+      <c r="C582" t="s">
+        <v>72</v>
+      </c>
+      <c r="D582" t="s">
+        <v>74</v>
+      </c>
+      <c r="E582" t="s">
+        <v>87</v>
+      </c>
+      <c r="F582">
+        <v>3.328608884</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583" t="s">
+        <v>71</v>
+      </c>
+      <c r="C583" t="s">
+        <v>73</v>
+      </c>
+      <c r="D583" t="s">
+        <v>74</v>
+      </c>
+      <c r="E583" t="s">
+        <v>87</v>
+      </c>
+      <c r="F583">
+        <v>2.664832064</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="A584" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584" t="s">
+        <v>71</v>
+      </c>
+      <c r="C584" t="s">
+        <v>73</v>
+      </c>
+      <c r="D584" t="s">
+        <v>74</v>
+      </c>
+      <c r="E584" t="s">
+        <v>87</v>
+      </c>
+      <c r="F584">
+        <v>2.904954202</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" t="s">
+        <v>13</v>
+      </c>
+      <c r="B585" t="s">
+        <v>71</v>
+      </c>
+      <c r="C585" t="s">
+        <v>72</v>
+      </c>
+      <c r="D585" t="s">
+        <v>74</v>
+      </c>
+      <c r="E585" t="s">
+        <v>87</v>
+      </c>
+      <c r="F585">
+        <v>3.103832242</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" t="s">
+        <v>14</v>
+      </c>
+      <c r="B586" t="s">
+        <v>70</v>
+      </c>
+      <c r="C586" t="s">
+        <v>73</v>
+      </c>
+      <c r="D586" t="s">
+        <v>75</v>
+      </c>
+      <c r="E586" t="s">
+        <v>87</v>
+      </c>
+      <c r="F586">
+        <v>2.369101034</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" t="s">
+        <v>15</v>
+      </c>
+      <c r="B587" t="s">
+        <v>71</v>
+      </c>
+      <c r="C587" t="s">
+        <v>72</v>
+      </c>
+      <c r="D587" t="s">
+        <v>74</v>
+      </c>
+      <c r="E587" t="s">
+        <v>87</v>
+      </c>
+      <c r="F587">
+        <v>2.267328708</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="A588" t="s">
+        <v>16</v>
+      </c>
+      <c r="B588" t="s">
+        <v>71</v>
+      </c>
+      <c r="C588" t="s">
+        <v>73</v>
+      </c>
+      <c r="D588" t="s">
+        <v>74</v>
+      </c>
+      <c r="E588" t="s">
+        <v>87</v>
+      </c>
+      <c r="F588">
+        <v>3.538878709</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="A589" t="s">
+        <v>17</v>
+      </c>
+      <c r="B589" t="s">
+        <v>71</v>
+      </c>
+      <c r="C589" t="s">
+        <v>72</v>
+      </c>
+      <c r="D589" t="s">
+        <v>74</v>
+      </c>
+      <c r="E589" t="s">
+        <v>87</v>
+      </c>
+      <c r="F589">
+        <v>3.329141856</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="A590" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" t="s">
+        <v>71</v>
+      </c>
+      <c r="C590" t="s">
+        <v>73</v>
+      </c>
+      <c r="D590" t="s">
+        <v>74</v>
+      </c>
+      <c r="E590" t="s">
+        <v>87</v>
+      </c>
+      <c r="F590">
+        <v>2.948577079</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="A591" t="s">
+        <v>19</v>
+      </c>
+      <c r="B591" t="s">
+        <v>70</v>
+      </c>
+      <c r="C591" t="s">
+        <v>72</v>
+      </c>
+      <c r="D591" t="s">
+        <v>74</v>
+      </c>
+      <c r="E591" t="s">
+        <v>87</v>
+      </c>
+      <c r="F591">
+        <v>2.577775815</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="A592" t="s">
+        <v>20</v>
+      </c>
+      <c r="B592" t="s">
+        <v>70</v>
+      </c>
+      <c r="C592" t="s">
+        <v>72</v>
+      </c>
+      <c r="D592" t="s">
+        <v>74</v>
+      </c>
+      <c r="E592" t="s">
+        <v>87</v>
+      </c>
+      <c r="F592">
+        <v>5.11613462</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" t="s">
+        <v>21</v>
+      </c>
+      <c r="B593" t="s">
+        <v>70</v>
+      </c>
+      <c r="C593" t="s">
+        <v>73</v>
+      </c>
+      <c r="D593" t="s">
+        <v>75</v>
+      </c>
+      <c r="E593" t="s">
+        <v>87</v>
+      </c>
+      <c r="F593">
+        <v>2.200549364</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="A594" t="s">
+        <v>22</v>
+      </c>
+      <c r="B594" t="s">
+        <v>70</v>
+      </c>
+      <c r="C594" t="s">
+        <v>72</v>
+      </c>
+      <c r="D594" t="s">
+        <v>75</v>
+      </c>
+      <c r="E594" t="s">
+        <v>87</v>
+      </c>
+      <c r="F594">
+        <v>2.482632741</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="A595" t="s">
+        <v>23</v>
+      </c>
+      <c r="B595" t="s">
+        <v>70</v>
+      </c>
+      <c r="C595" t="s">
+        <v>73</v>
+      </c>
+      <c r="D595" t="s">
+        <v>74</v>
+      </c>
+      <c r="E595" t="s">
+        <v>87</v>
+      </c>
+      <c r="F595">
+        <v>2.333146504</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" t="s">
+        <v>24</v>
+      </c>
+      <c r="B596" t="s">
+        <v>70</v>
+      </c>
+      <c r="C596" t="s">
+        <v>72</v>
+      </c>
+      <c r="D596" t="s">
+        <v>75</v>
+      </c>
+      <c r="E596" t="s">
+        <v>87</v>
+      </c>
+      <c r="F596">
+        <v>2.58599046</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="A597" t="s">
+        <v>25</v>
+      </c>
+      <c r="B597" t="s">
+        <v>70</v>
+      </c>
+      <c r="C597" t="s">
+        <v>73</v>
+      </c>
+      <c r="D597" t="s">
+        <v>74</v>
+      </c>
+      <c r="E597" t="s">
+        <v>87</v>
+      </c>
+      <c r="F597">
+        <v>2.441396941</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="A598" t="s">
+        <v>26</v>
+      </c>
+      <c r="B598" t="s">
+        <v>71</v>
+      </c>
+      <c r="C598" t="s">
+        <v>72</v>
+      </c>
+      <c r="D598" t="s">
+        <v>75</v>
+      </c>
+      <c r="E598" t="s">
+        <v>87</v>
+      </c>
+      <c r="F598">
+        <v>3.262230449</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6">
+      <c r="A599" t="s">
+        <v>27</v>
+      </c>
+      <c r="B599" t="s">
+        <v>71</v>
+      </c>
+      <c r="C599" t="s">
+        <v>73</v>
+      </c>
+      <c r="D599" t="s">
+        <v>75</v>
+      </c>
+      <c r="E599" t="s">
+        <v>87</v>
+      </c>
+      <c r="F599">
+        <v>3.51205936</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="A600" t="s">
+        <v>28</v>
+      </c>
+      <c r="B600" t="s">
+        <v>71</v>
+      </c>
+      <c r="C600" t="s">
+        <v>73</v>
+      </c>
+      <c r="D600" t="s">
+        <v>75</v>
+      </c>
+      <c r="E600" t="s">
+        <v>87</v>
+      </c>
+      <c r="F600">
+        <v>2.995865846</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6">
+      <c r="A601" t="s">
+        <v>29</v>
+      </c>
+      <c r="B601" t="s">
+        <v>71</v>
+      </c>
+      <c r="C601" t="s">
+        <v>72</v>
+      </c>
+      <c r="D601" t="s">
+        <v>75</v>
+      </c>
+      <c r="E601" t="s">
+        <v>87</v>
+      </c>
+      <c r="F601">
+        <v>3.526603538</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6">
+      <c r="A602" t="s">
+        <v>30</v>
+      </c>
+      <c r="B602" t="s">
+        <v>70</v>
+      </c>
+      <c r="C602" t="s">
+        <v>73</v>
+      </c>
+      <c r="D602" t="s">
+        <v>74</v>
+      </c>
+      <c r="E602" t="s">
+        <v>87</v>
+      </c>
+      <c r="F602">
+        <v>2.855138216</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6">
+      <c r="A603" t="s">
+        <v>31</v>
+      </c>
+      <c r="B603" t="s">
+        <v>71</v>
+      </c>
+      <c r="C603" t="s">
+        <v>72</v>
+      </c>
+      <c r="D603" t="s">
+        <v>75</v>
+      </c>
+      <c r="E603" t="s">
+        <v>87</v>
+      </c>
+      <c r="F603">
+        <v>4.730026941</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="A604" t="s">
+        <v>32</v>
+      </c>
+      <c r="B604" t="s">
+        <v>71</v>
+      </c>
+      <c r="C604" t="s">
+        <v>73</v>
+      </c>
+      <c r="D604" t="s">
+        <v>75</v>
+      </c>
+      <c r="E604" t="s">
+        <v>87</v>
+      </c>
+      <c r="F604">
+        <v>3.019023829</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="A605" t="s">
+        <v>33</v>
+      </c>
+      <c r="B605" t="s">
+        <v>71</v>
+      </c>
+      <c r="C605" t="s">
+        <v>72</v>
+      </c>
+      <c r="D605" t="s">
+        <v>75</v>
+      </c>
+      <c r="E605" t="s">
+        <v>87</v>
+      </c>
+      <c r="F605">
+        <v>3.274859032</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" t="s">
+        <v>34</v>
+      </c>
+      <c r="B606" t="s">
+        <v>71</v>
+      </c>
+      <c r="C606" t="s">
+        <v>73</v>
+      </c>
+      <c r="D606" t="s">
+        <v>75</v>
+      </c>
+      <c r="E606" t="s">
+        <v>87</v>
+      </c>
+      <c r="F606">
+        <v>2.916987491</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="A607" t="s">
+        <v>35</v>
+      </c>
+      <c r="B607" t="s">
+        <v>70</v>
+      </c>
+      <c r="C607" t="s">
+        <v>72</v>
+      </c>
+      <c r="D607" t="s">
+        <v>75</v>
+      </c>
+      <c r="E607" t="s">
+        <v>87</v>
+      </c>
+      <c r="F607">
+        <v>4.896740011</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="A608" t="s">
+        <v>36</v>
+      </c>
+      <c r="B608" t="s">
+        <v>70</v>
+      </c>
+      <c r="C608" t="s">
+        <v>72</v>
+      </c>
+      <c r="D608" t="s">
+        <v>75</v>
+      </c>
+      <c r="E608" t="s">
+        <v>87</v>
+      </c>
+      <c r="F608">
+        <v>3.359152629</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="A609" t="s">
+        <v>37</v>
+      </c>
+      <c r="B609" t="s">
+        <v>70</v>
+      </c>
+      <c r="C609" t="s">
+        <v>73</v>
+      </c>
+      <c r="D609" t="s">
+        <v>74</v>
+      </c>
+      <c r="E609" t="s">
+        <v>87</v>
+      </c>
+      <c r="F609">
+        <v>2.47306082</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6">
+      <c r="A610" t="s">
+        <v>38</v>
+      </c>
+      <c r="B610" t="s">
+        <v>70</v>
+      </c>
+      <c r="C610" t="s">
+        <v>72</v>
+      </c>
+      <c r="D610" t="s">
+        <v>76</v>
+      </c>
+      <c r="E610" t="s">
+        <v>87</v>
+      </c>
+      <c r="F610">
+        <v>3.178628399</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
+      <c r="A611" t="s">
+        <v>39</v>
+      </c>
+      <c r="B611" t="s">
+        <v>70</v>
+      </c>
+      <c r="C611" t="s">
+        <v>73</v>
+      </c>
+      <c r="D611" t="s">
+        <v>76</v>
+      </c>
+      <c r="E611" t="s">
+        <v>87</v>
+      </c>
+      <c r="F611">
+        <v>2.353624588</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" t="s">
+        <v>40</v>
+      </c>
+      <c r="B612" t="s">
+        <v>70</v>
+      </c>
+      <c r="C612" t="s">
+        <v>72</v>
+      </c>
+      <c r="D612" t="s">
+        <v>76</v>
+      </c>
+      <c r="E612" t="s">
+        <v>87</v>
+      </c>
+      <c r="F612">
+        <v>4.622572455</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" t="s">
+        <v>41</v>
+      </c>
+      <c r="B613" t="s">
+        <v>70</v>
+      </c>
+      <c r="C613" t="s">
+        <v>73</v>
+      </c>
+      <c r="D613" t="s">
+        <v>76</v>
+      </c>
+      <c r="E613" t="s">
+        <v>87</v>
+      </c>
+      <c r="F613">
+        <v>3.109791976</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="A614" t="s">
+        <v>42</v>
+      </c>
+      <c r="B614" t="s">
+        <v>71</v>
+      </c>
+      <c r="C614" t="s">
+        <v>72</v>
+      </c>
+      <c r="D614" t="s">
+        <v>76</v>
+      </c>
+      <c r="E614" t="s">
+        <v>87</v>
+      </c>
+      <c r="F614">
+        <v>3.617403182</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" t="s">
+        <v>43</v>
+      </c>
+      <c r="B615" t="s">
+        <v>71</v>
+      </c>
+      <c r="C615" t="s">
+        <v>73</v>
+      </c>
+      <c r="D615" t="s">
+        <v>76</v>
+      </c>
+      <c r="E615" t="s">
+        <v>87</v>
+      </c>
+      <c r="F615">
+        <v>3.835020121</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" t="s">
+        <v>44</v>
+      </c>
+      <c r="B616" t="s">
+        <v>71</v>
+      </c>
+      <c r="C616" t="s">
+        <v>73</v>
+      </c>
+      <c r="D616" t="s">
+        <v>76</v>
+      </c>
+      <c r="E616" t="s">
+        <v>87</v>
+      </c>
+      <c r="F616">
+        <v>4.496554265</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" t="s">
+        <v>45</v>
+      </c>
+      <c r="B617" t="s">
+        <v>71</v>
+      </c>
+      <c r="C617" t="s">
+        <v>72</v>
+      </c>
+      <c r="D617" t="s">
+        <v>76</v>
+      </c>
+      <c r="E617" t="s">
+        <v>87</v>
+      </c>
+      <c r="F617">
+        <v>3.638632327</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" t="s">
+        <v>46</v>
+      </c>
+      <c r="B618" t="s">
+        <v>70</v>
+      </c>
+      <c r="C618" t="s">
+        <v>73</v>
+      </c>
+      <c r="D618" t="s">
+        <v>76</v>
+      </c>
+      <c r="E618" t="s">
+        <v>87</v>
+      </c>
+      <c r="F618">
+        <v>3.540727073</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" t="s">
+        <v>47</v>
+      </c>
+      <c r="B619" t="s">
+        <v>71</v>
+      </c>
+      <c r="C619" t="s">
+        <v>72</v>
+      </c>
+      <c r="D619" t="s">
+        <v>76</v>
+      </c>
+      <c r="E619" t="s">
+        <v>87</v>
+      </c>
+      <c r="F619">
+        <v>3.582305009</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" t="s">
+        <v>48</v>
+      </c>
+      <c r="B620" t="s">
+        <v>71</v>
+      </c>
+      <c r="C620" t="s">
+        <v>73</v>
+      </c>
+      <c r="D620" t="s">
+        <v>76</v>
+      </c>
+      <c r="E620" t="s">
+        <v>87</v>
+      </c>
+      <c r="F620">
+        <v>2.945996618</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" t="s">
+        <v>49</v>
+      </c>
+      <c r="B621" t="s">
+        <v>71</v>
+      </c>
+      <c r="C621" t="s">
+        <v>72</v>
+      </c>
+      <c r="D621" t="s">
+        <v>76</v>
+      </c>
+      <c r="E621" t="s">
+        <v>87</v>
+      </c>
+      <c r="F621">
+        <v>4.755571412</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" t="s">
+        <v>50</v>
+      </c>
+      <c r="B622" t="s">
+        <v>71</v>
+      </c>
+      <c r="C622" t="s">
+        <v>73</v>
+      </c>
+      <c r="D622" t="s">
+        <v>76</v>
+      </c>
+      <c r="E622" t="s">
+        <v>87</v>
+      </c>
+      <c r="F622">
+        <v>2.831031369</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" t="s">
+        <v>51</v>
+      </c>
+      <c r="B623" t="s">
+        <v>70</v>
+      </c>
+      <c r="C623" t="s">
+        <v>72</v>
+      </c>
+      <c r="D623" t="s">
+        <v>76</v>
+      </c>
+      <c r="E623" t="s">
+        <v>87</v>
+      </c>
+      <c r="F623">
+        <v>4.708536946</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="A624" t="s">
+        <v>52</v>
+      </c>
+      <c r="B624" t="s">
+        <v>70</v>
+      </c>
+      <c r="C624" t="s">
+        <v>72</v>
+      </c>
+      <c r="D624" t="s">
+        <v>76</v>
+      </c>
+      <c r="E624" t="s">
+        <v>87</v>
+      </c>
+      <c r="F624">
+        <v>3.942907519</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" t="s">
+        <v>53</v>
+      </c>
+      <c r="B625" t="s">
+        <v>70</v>
+      </c>
+      <c r="C625" t="s">
+        <v>73</v>
+      </c>
+      <c r="D625" t="s">
+        <v>76</v>
+      </c>
+      <c r="E625" t="s">
+        <v>87</v>
+      </c>
+      <c r="F625">
+        <v>2.639819357</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="A626" t="s">
+        <v>54</v>
+      </c>
+      <c r="B626" t="s">
+        <v>70</v>
+      </c>
+      <c r="C626" t="s">
+        <v>72</v>
+      </c>
+      <c r="D626" t="s">
+        <v>77</v>
+      </c>
+      <c r="E626" t="s">
+        <v>87</v>
+      </c>
+      <c r="F626">
+        <v>5.2449191</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" t="s">
+        <v>55</v>
+      </c>
+      <c r="B627" t="s">
+        <v>70</v>
+      </c>
+      <c r="C627" t="s">
+        <v>73</v>
+      </c>
+      <c r="D627" t="s">
+        <v>77</v>
+      </c>
+      <c r="E627" t="s">
+        <v>87</v>
+      </c>
+      <c r="F627">
+        <v>3.173699049</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6">
+      <c r="A628" t="s">
+        <v>56</v>
+      </c>
+      <c r="B628" t="s">
+        <v>70</v>
+      </c>
+      <c r="C628" t="s">
+        <v>72</v>
+      </c>
+      <c r="D628" t="s">
+        <v>77</v>
+      </c>
+      <c r="E628" t="s">
+        <v>87</v>
+      </c>
+      <c r="F628">
+        <v>4.419962625</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" t="s">
+        <v>57</v>
+      </c>
+      <c r="B629" t="s">
+        <v>70</v>
+      </c>
+      <c r="C629" t="s">
+        <v>73</v>
+      </c>
+      <c r="D629" t="s">
+        <v>77</v>
+      </c>
+      <c r="E629" t="s">
+        <v>87</v>
+      </c>
+      <c r="F629">
+        <v>1.861406574</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="A630" t="s">
+        <v>58</v>
+      </c>
+      <c r="B630" t="s">
+        <v>71</v>
+      </c>
+      <c r="C630" t="s">
+        <v>72</v>
+      </c>
+      <c r="D630" t="s">
+        <v>77</v>
+      </c>
+      <c r="E630" t="s">
+        <v>87</v>
+      </c>
+      <c r="F630">
+        <v>3.872118594</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" t="s">
+        <v>59</v>
+      </c>
+      <c r="B631" t="s">
+        <v>71</v>
+      </c>
+      <c r="C631" t="s">
+        <v>73</v>
+      </c>
+      <c r="D631" t="s">
+        <v>77</v>
+      </c>
+      <c r="E631" t="s">
+        <v>87</v>
+      </c>
+      <c r="F631">
+        <v>3.4230416</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" t="s">
+        <v>60</v>
+      </c>
+      <c r="B632" t="s">
+        <v>71</v>
+      </c>
+      <c r="C632" t="s">
+        <v>73</v>
+      </c>
+      <c r="D632" t="s">
+        <v>77</v>
+      </c>
+      <c r="E632" t="s">
+        <v>87</v>
+      </c>
+      <c r="F632">
+        <v>3.131629146</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" t="s">
+        <v>61</v>
+      </c>
+      <c r="B633" t="s">
+        <v>71</v>
+      </c>
+      <c r="C633" t="s">
+        <v>72</v>
+      </c>
+      <c r="D633" t="s">
+        <v>77</v>
+      </c>
+      <c r="E633" t="s">
+        <v>87</v>
+      </c>
+      <c r="F633">
+        <v>3.790218598</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" t="s">
+        <v>62</v>
+      </c>
+      <c r="B634" t="s">
+        <v>70</v>
+      </c>
+      <c r="C634" t="s">
+        <v>73</v>
+      </c>
+      <c r="D634" t="s">
+        <v>77</v>
+      </c>
+      <c r="E634" t="s">
+        <v>87</v>
+      </c>
+      <c r="F634">
+        <v>3.327318763</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" t="s">
+        <v>63</v>
+      </c>
+      <c r="B635" t="s">
+        <v>71</v>
+      </c>
+      <c r="C635" t="s">
+        <v>72</v>
+      </c>
+      <c r="D635" t="s">
+        <v>77</v>
+      </c>
+      <c r="E635" t="s">
+        <v>87</v>
+      </c>
+      <c r="F635">
+        <v>4.333271969</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" t="s">
+        <v>64</v>
+      </c>
+      <c r="B636" t="s">
+        <v>71</v>
+      </c>
+      <c r="C636" t="s">
+        <v>73</v>
+      </c>
+      <c r="D636" t="s">
+        <v>77</v>
+      </c>
+      <c r="E636" t="s">
+        <v>87</v>
+      </c>
+      <c r="F636">
+        <v>3.415348988</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" t="s">
+        <v>65</v>
+      </c>
+      <c r="B637" t="s">
+        <v>71</v>
+      </c>
+      <c r="C637" t="s">
+        <v>72</v>
+      </c>
+      <c r="D637" t="s">
+        <v>77</v>
+      </c>
+      <c r="E637" t="s">
+        <v>87</v>
+      </c>
+      <c r="F637">
+        <v>3.893317754</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" t="s">
+        <v>66</v>
+      </c>
+      <c r="B638" t="s">
+        <v>71</v>
+      </c>
+      <c r="C638" t="s">
+        <v>73</v>
+      </c>
+      <c r="D638" t="s">
+        <v>77</v>
+      </c>
+      <c r="E638" t="s">
+        <v>87</v>
+      </c>
+      <c r="F638">
+        <v>3.134456109</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" t="s">
+        <v>67</v>
+      </c>
+      <c r="B639" t="s">
+        <v>70</v>
+      </c>
+      <c r="C639" t="s">
+        <v>72</v>
+      </c>
+      <c r="D639" t="s">
+        <v>77</v>
+      </c>
+      <c r="E639" t="s">
+        <v>87</v>
+      </c>
+      <c r="F639">
+        <v>2.874393575</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="A640" t="s">
+        <v>68</v>
+      </c>
+      <c r="B640" t="s">
+        <v>70</v>
+      </c>
+      <c r="C640" t="s">
+        <v>72</v>
+      </c>
+      <c r="D640" t="s">
+        <v>77</v>
+      </c>
+      <c r="E640" t="s">
+        <v>87</v>
+      </c>
+      <c r="F640">
+        <v>2.554588785</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" t="s">
+        <v>69</v>
+      </c>
+      <c r="B641" t="s">
+        <v>70</v>
+      </c>
+      <c r="C641" t="s">
+        <v>73</v>
+      </c>
+      <c r="D641" t="s">
+        <v>77</v>
+      </c>
+      <c r="E641" t="s">
+        <v>87</v>
+      </c>
+      <c r="F641">
+        <v>2.172787653</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
+++ b/Litter chemistry/Carbohydrates and Proteins FTIR.xlsx
@@ -31,7 +31,7 @@
     <t>functionalGroup</t>
   </si>
   <si>
-    <t>value</t>
+    <t>spectralArea</t>
   </si>
   <si>
     <t>t0-14</t>
